--- a/Report/昆明机构周报.xlsx
+++ b/Report/昆明机构周报.xlsx
@@ -525,28 +525,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>8.946369000000001</v>
+        <v>12.443974</v>
       </c>
       <c r="C3" s="4">
-        <v>-0.7720356453663072</v>
+        <v>-0.6829124193302946</v>
       </c>
       <c r="D3" s="4">
-        <v>-0.3858048929682503</v>
+        <v>-0.1456838027997381</v>
       </c>
       <c r="E3" s="3">
-        <v>130.9646760000001</v>
+        <v>134.462281</v>
       </c>
       <c r="F3" s="4">
-        <v>0.3464837548463873</v>
+        <v>0.359226488911782</v>
       </c>
       <c r="G3" s="4">
-        <v>1.254106609790487</v>
+        <v>1.11613887974742</v>
       </c>
       <c r="H3" s="3">
-        <v>130.9646760000001</v>
+        <v>134.462281</v>
       </c>
       <c r="I3" s="4">
-        <v>1.254106609790487</v>
+        <v>1.11613887974742</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,28 +554,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>2.894606</v>
+        <v>5.12175</v>
       </c>
       <c r="C4" s="4">
-        <v>-0.90079964994474</v>
+        <v>-0.8244737304850721</v>
       </c>
       <c r="D4" s="4">
-        <v>-0.6553921504432889</v>
+        <v>-0.3902468061397356</v>
       </c>
       <c r="E4" s="3">
-        <v>91.11911200000002</v>
+        <v>93.34625600000001</v>
       </c>
       <c r="F4" s="4">
-        <v>0.6029369073873772</v>
+        <v>0.6267176479106822</v>
       </c>
       <c r="G4" s="4">
-        <v>0.8515389421529882</v>
+        <v>0.8187797289132102</v>
       </c>
       <c r="H4" s="3">
-        <v>91.11911200000002</v>
+        <v>93.34625600000001</v>
       </c>
       <c r="I4" s="4">
-        <v>0.8515389421529882</v>
+        <v>0.8187797289132102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,28 +583,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <v>1.642268</v>
+        <v>2.352003</v>
       </c>
       <c r="C5" s="4">
-        <v>-0.9106882517114385</v>
+        <v>-0.8720906088957823</v>
       </c>
       <c r="D5" s="4">
-        <v>-0.7335471098473159</v>
+        <v>-0.6183948070608554</v>
       </c>
       <c r="E5" s="3">
-        <v>52.22034500000002</v>
+        <v>52.93008000000003</v>
       </c>
       <c r="F5" s="4">
-        <v>0.280452537674897</v>
+        <v>0.283714865846785</v>
       </c>
       <c r="G5" s="4">
-        <v>0.5102777889204941</v>
+        <v>0.4539815933295728</v>
       </c>
       <c r="H5" s="3">
-        <v>52.22034500000002</v>
+        <v>52.93008000000003</v>
       </c>
       <c r="I5" s="4">
-        <v>0.5102777889204941</v>
+        <v>0.4539815933295728</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,28 +612,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>5.589028</v>
+        <v>6.878212999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.8861546960290615</v>
+        <v>-0.859894734869487</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.4736234790817945</v>
+        <v>-0.3522076058530441</v>
       </c>
       <c r="E6" s="3">
-        <v>118.3390980000001</v>
+        <v>119.6282830000001</v>
       </c>
       <c r="F6" s="4">
-        <v>0.8562080908890743</v>
+        <v>0.842643375246179</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8125019939741593</v>
+        <v>0.7614086046759447</v>
       </c>
       <c r="H6" s="3">
-        <v>118.3390980000001</v>
+        <v>119.6282830000001</v>
       </c>
       <c r="I6" s="4">
-        <v>0.8125019939741593</v>
+        <v>0.7614086046759447</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,28 +641,28 @@
         <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>6.312448</v>
+        <v>7.534509</v>
       </c>
       <c r="C7" s="4">
-        <v>-0.6938379907768935</v>
+        <v>-0.6345664290700567</v>
       </c>
       <c r="D7" s="4">
-        <v>0.2025373413542522</v>
+        <v>0.4353430588687124</v>
       </c>
       <c r="E7" s="3">
-        <v>66.71876699999999</v>
+        <v>67.94082799999998</v>
       </c>
       <c r="F7" s="4">
-        <v>0.1469839472229095</v>
+        <v>0.1256340954753057</v>
       </c>
       <c r="G7" s="4">
-        <v>1.216217578125687</v>
+        <v>1.146624346391816</v>
       </c>
       <c r="H7" s="3">
-        <v>66.71876699999999</v>
+        <v>67.94082799999998</v>
       </c>
       <c r="I7" s="4">
-        <v>1.216217578125687</v>
+        <v>1.146624346391816</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,28 +670,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>2.085325</v>
+        <v>2.829816</v>
       </c>
       <c r="C8" s="4">
-        <v>-0.6988268933253688</v>
+        <v>-0.5913037651025246</v>
       </c>
       <c r="D8" s="4">
-        <v>-0.6752373006816774</v>
+        <v>-0.5592923488021395</v>
       </c>
       <c r="E8" s="3">
-        <v>28.967731</v>
+        <v>29.712222</v>
       </c>
       <c r="F8" s="4">
-        <v>0.2270048710021213</v>
+        <v>0.1662829460105939</v>
       </c>
       <c r="G8" s="4">
-        <v>0.5149589992893726</v>
+        <v>0.4733708506525764</v>
       </c>
       <c r="H8" s="3">
-        <v>28.967731</v>
+        <v>29.712222</v>
       </c>
       <c r="I8" s="4">
-        <v>0.5149589992893726</v>
+        <v>0.4733708506525764</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -728,28 +728,28 @@
         <v>17</v>
       </c>
       <c r="B10" s="3">
-        <v>4.924177999999999</v>
+        <v>8.791193</v>
       </c>
       <c r="C10" s="4">
-        <v>-0.7903595710019526</v>
+        <v>-0.6257264721290272</v>
       </c>
       <c r="D10" s="4">
-        <v>-0.108047353655497</v>
+        <v>0.5924135684931111</v>
       </c>
       <c r="E10" s="3">
-        <v>89.27831699999996</v>
+        <v>93.14533199999995</v>
       </c>
       <c r="F10" s="4">
-        <v>3.107018602964477</v>
+        <v>3.284910649730352</v>
       </c>
       <c r="G10" s="4">
-        <v>1.507388960708687</v>
+        <v>1.503014839658211</v>
       </c>
       <c r="H10" s="3">
-        <v>89.27831699999996</v>
+        <v>93.14533199999995</v>
       </c>
       <c r="I10" s="4">
-        <v>1.507388960708687</v>
+        <v>1.503014839658211</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -757,28 +757,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="3">
-        <v>6.24946</v>
+        <v>9.775366000000007</v>
       </c>
       <c r="C11" s="4">
-        <v>-0.7037560578232815</v>
+        <v>-0.5366170901069438</v>
       </c>
       <c r="D11" s="4">
-        <v>-0.5881901170926082</v>
+        <v>-0.3558495729491985</v>
       </c>
       <c r="E11" s="3">
-        <v>54.77700400000001</v>
+        <v>58.30291000000005</v>
       </c>
       <c r="F11" s="4">
-        <v>4.954087539439294</v>
+        <v>4.742277957292985</v>
       </c>
       <c r="G11" s="4">
-        <v>0.1278063721909823</v>
+        <v>0.1292758121988367</v>
       </c>
       <c r="H11" s="3">
-        <v>54.77700400000001</v>
+        <v>58.30291000000005</v>
       </c>
       <c r="I11" s="4">
-        <v>0.1278063721909823</v>
+        <v>0.1292758121988367</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -786,28 +786,28 @@
         <v>19</v>
       </c>
       <c r="B12" s="3">
-        <v>38.82330399999999</v>
+        <v>55.906446</v>
       </c>
       <c r="C12" s="4">
-        <v>-0.8601649875262801</v>
+        <v>-0.7986343827467299</v>
       </c>
       <c r="D12" s="4">
-        <v>-0.5483703723419404</v>
+        <v>-0.3496430033192068</v>
       </c>
       <c r="E12" s="3">
-        <v>706.1516070000002</v>
+        <v>723.2347490000004</v>
       </c>
       <c r="F12" s="4">
-        <v>0.8589133665104289</v>
+        <v>0.860646268751216</v>
       </c>
       <c r="G12" s="4">
-        <v>0.7761336801060772</v>
+        <v>0.7350458992111726</v>
       </c>
       <c r="H12" s="3">
-        <v>706.1516070000002</v>
+        <v>723.2347490000004</v>
       </c>
       <c r="I12" s="4">
-        <v>0.7761336801060772</v>
+        <v>0.7350458992111726</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -857,28 +857,28 @@
         <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>8.940710999999999</v>
+        <v>12.438316</v>
       </c>
       <c r="C16" s="4">
-        <v>-0.7654704099264336</v>
+        <v>-0.6737224642776753</v>
       </c>
       <c r="D16" s="4">
-        <v>-0.3861933316650654</v>
+        <v>-0.1460722414965533</v>
       </c>
       <c r="E16" s="3">
-        <v>129.638514</v>
+        <v>133.136119</v>
       </c>
       <c r="F16" s="4">
-        <v>0.5995361588090604</v>
+        <v>0.6096942618590673</v>
       </c>
       <c r="G16" s="4">
-        <v>1.231281290619285</v>
+        <v>1.095268023265046</v>
       </c>
       <c r="H16" s="3">
-        <v>129.638514</v>
+        <v>133.136119</v>
       </c>
       <c r="I16" s="4">
-        <v>1.231281290619285</v>
+        <v>1.095268023265046</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -886,28 +886,28 @@
         <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>2.412653</v>
+        <v>4.620363</v>
       </c>
       <c r="C17" s="4">
-        <v>-0.9039211618092021</v>
+        <v>-0.8160037481313104</v>
       </c>
       <c r="D17" s="4">
-        <v>-0.710296751386735</v>
+        <v>-0.4452023681513541</v>
       </c>
       <c r="E17" s="3">
-        <v>81.96502599999999</v>
+        <v>84.172736</v>
       </c>
       <c r="F17" s="4">
-        <v>0.6755472311194721</v>
+        <v>0.7019565191237427</v>
       </c>
       <c r="G17" s="4">
-        <v>0.9352870348630651</v>
+        <v>0.8938644633363753</v>
       </c>
       <c r="H17" s="3">
-        <v>81.96502599999999</v>
+        <v>84.172736</v>
       </c>
       <c r="I17" s="4">
-        <v>0.9352870348630651</v>
+        <v>0.8938644633363753</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -915,28 +915,28 @@
         <v>12</v>
       </c>
       <c r="B18" s="3">
-        <v>1.642268</v>
+        <v>2.332569</v>
       </c>
       <c r="C18" s="4">
-        <v>-0.8993171419783479</v>
+        <v>-0.8569967182867186</v>
       </c>
       <c r="D18" s="4">
-        <v>-0.7335471098473159</v>
+        <v>-0.6215479132939592</v>
       </c>
       <c r="E18" s="3">
-        <v>49.80705600000001</v>
+        <v>50.49735700000002</v>
       </c>
       <c r="F18" s="4">
-        <v>0.231411558458396</v>
+        <v>0.2347641567496059</v>
       </c>
       <c r="G18" s="4">
-        <v>0.6118622990178386</v>
+        <v>0.542977754596252</v>
       </c>
       <c r="H18" s="3">
-        <v>49.80705600000001</v>
+        <v>50.49735700000002</v>
       </c>
       <c r="I18" s="4">
-        <v>0.6118622990178386</v>
+        <v>0.542977754596252</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -944,28 +944,28 @@
         <v>13</v>
       </c>
       <c r="B19" s="3">
-        <v>5.530726</v>
+        <v>6.453725</v>
       </c>
       <c r="C19" s="4">
-        <v>-0.8321979561481287</v>
+        <v>-0.8041941970262282</v>
       </c>
       <c r="D19" s="4">
-        <v>-0.452073525448983</v>
+        <v>-0.3606324401223706</v>
       </c>
       <c r="E19" s="3">
-        <v>100.581055</v>
+        <v>101.504054</v>
       </c>
       <c r="F19" s="4">
-        <v>0.6819999415035383</v>
+        <v>0.6648892810835942</v>
       </c>
       <c r="G19" s="4">
-        <v>0.9628477871026049</v>
+        <v>0.8856245171182782</v>
       </c>
       <c r="H19" s="3">
-        <v>100.581055</v>
+        <v>101.504054</v>
       </c>
       <c r="I19" s="4">
-        <v>0.9628477871026049</v>
+        <v>0.8856245171182782</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -973,28 +973,28 @@
         <v>14</v>
       </c>
       <c r="B20" s="3">
-        <v>4.448145999999999</v>
+        <v>5.670207</v>
       </c>
       <c r="C20" s="4">
-        <v>-0.7824634627149087</v>
+        <v>-0.722698581280901</v>
       </c>
       <c r="D20" s="4">
-        <v>-0.07624968018687062</v>
+        <v>0.1775367826633041</v>
       </c>
       <c r="E20" s="3">
-        <v>64.58979999999998</v>
+        <v>65.81186099999999</v>
       </c>
       <c r="F20" s="4">
-        <v>0.1781691493875128</v>
+        <v>0.1543686469641978</v>
       </c>
       <c r="G20" s="4">
-        <v>1.576527881975429</v>
+        <v>1.511572081740524</v>
       </c>
       <c r="H20" s="3">
-        <v>64.58979999999998</v>
+        <v>65.81186099999999</v>
       </c>
       <c r="I20" s="4">
-        <v>1.576527881975429</v>
+        <v>1.511572081740524</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1002,28 +1002,28 @@
         <v>15</v>
       </c>
       <c r="B21" s="3">
-        <v>2.085325</v>
+        <v>2.810382</v>
       </c>
       <c r="C21" s="4">
-        <v>-0.6962694004083483</v>
+        <v>-0.5906638006346324</v>
       </c>
       <c r="D21" s="4">
-        <v>-0.6718625467837707</v>
+        <v>-0.5577708069271059</v>
       </c>
       <c r="E21" s="3">
-        <v>28.512881</v>
+        <v>29.237938</v>
       </c>
       <c r="F21" s="4">
-        <v>0.4110673712877544</v>
+        <v>0.325702209236316</v>
       </c>
       <c r="G21" s="4">
-        <v>0.5131197738032249</v>
+        <v>0.4714671013068343</v>
       </c>
       <c r="H21" s="3">
-        <v>28.512881</v>
+        <v>29.237938</v>
       </c>
       <c r="I21" s="4">
-        <v>0.5131197738032249</v>
+        <v>0.4714671013068343</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1060,28 +1060,28 @@
         <v>17</v>
       </c>
       <c r="B23" s="3">
-        <v>4.904744</v>
+        <v>8.433797</v>
       </c>
       <c r="C23" s="4">
-        <v>-0.7668187708848936</v>
+        <v>-0.5990406124015245</v>
       </c>
       <c r="D23" s="4">
-        <v>-0.1077557986620912</v>
+        <v>0.534230220478592</v>
       </c>
       <c r="E23" s="3">
-        <v>64.812712</v>
+        <v>68.34176500000001</v>
       </c>
       <c r="F23" s="4">
-        <v>24.79171070559921</v>
+        <v>26.19606968444779</v>
       </c>
       <c r="G23" s="4">
-        <v>4.88307378605297</v>
+        <v>4.423780863325522</v>
       </c>
       <c r="H23" s="3">
-        <v>64.812712</v>
+        <v>68.34176500000001</v>
       </c>
       <c r="I23" s="4">
-        <v>4.88307378605297</v>
+        <v>4.423780863325522</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1118,28 +1118,28 @@
         <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>30.14419499999998</v>
+        <v>42.93898099999996</v>
       </c>
       <c r="C25" s="4">
-        <v>-0.8608518423020275</v>
+        <v>-0.8017900262528741</v>
       </c>
       <c r="D25" s="4">
-        <v>-0.4666336889032658</v>
+        <v>-0.2402448996159043</v>
       </c>
       <c r="E25" s="3">
-        <v>577.7915160000005</v>
+        <v>590.5863020000007</v>
       </c>
       <c r="F25" s="4">
-        <v>0.8491205680028797</v>
+        <v>0.8437213545949565</v>
       </c>
       <c r="G25" s="4">
-        <v>1.404556168990883</v>
+        <v>1.307132734643642</v>
       </c>
       <c r="H25" s="3">
-        <v>577.7915160000005</v>
+        <v>590.5863020000007</v>
       </c>
       <c r="I25" s="4">
-        <v>1.404556168990883</v>
+        <v>1.307132734643642</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1320,13 +1320,13 @@
         <v>21</v>
       </c>
       <c r="G33" s="4">
-        <v>-1.024102691263709</v>
+        <v>-1.017759884850505</v>
       </c>
       <c r="H33" s="3">
         <v>-0.025467</v>
       </c>
       <c r="I33" s="4">
-        <v>-1.024102691263709</v>
+        <v>-1.017759884850505</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1421,16 +1421,16 @@
         <v>18</v>
       </c>
       <c r="B37" s="3">
-        <v>0.002829</v>
+        <v>0.008490000000000001</v>
       </c>
       <c r="C37" s="4">
-        <v>-0.8750607251689264</v>
+        <v>-0.6250496842291215</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="3">
-        <v>0.05848600000000001</v>
+        <v>0.06414700000000001</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>21</v>
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="H37" s="3">
-        <v>0.05848600000000001</v>
+        <v>0.06414700000000001</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>21</v>
@@ -1450,28 +1450,28 @@
         <v>19</v>
       </c>
       <c r="B38" s="3">
-        <v>0.455659</v>
+        <v>0.46132</v>
       </c>
       <c r="C38" s="4">
-        <v>-0.9872677407527943</v>
+        <v>-0.9871095581653804</v>
       </c>
       <c r="D38" s="4">
-        <v>-0.9664351413629781</v>
+        <v>-0.9660181394717741</v>
       </c>
       <c r="E38" s="3">
-        <v>41.60473399999999</v>
+        <v>41.610395</v>
       </c>
       <c r="F38" s="4">
-        <v>1.385035809588254</v>
+        <v>1.385360332459092</v>
       </c>
       <c r="G38" s="4">
-        <v>-0.4599554223158724</v>
+        <v>-0.4625146747859721</v>
       </c>
       <c r="H38" s="3">
-        <v>41.60473399999999</v>
+        <v>41.610395</v>
       </c>
       <c r="I38" s="4">
-        <v>-0.4599554223158724</v>
+        <v>-0.4625146747859721</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1550,28 +1550,28 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>0.029123</v>
+        <v>0.048557</v>
       </c>
       <c r="C43" s="4">
-        <v>-0.9636766607921713</v>
+        <v>-0.9394378195270221</v>
       </c>
       <c r="D43" s="4">
-        <v>-0.5937931515447381</v>
+        <v>-0.3227282237255039</v>
       </c>
       <c r="E43" s="3">
-        <v>1.586701</v>
+        <v>1.606135</v>
       </c>
       <c r="F43" s="4">
-        <v>-0.7759668351491393</v>
+        <v>-0.7732228647818731</v>
       </c>
       <c r="G43" s="4">
-        <v>-0.3096449505391615</v>
+        <v>-0.3068794416835114</v>
       </c>
       <c r="H43" s="3">
-        <v>1.586701</v>
+        <v>1.606135</v>
       </c>
       <c r="I43" s="4">
-        <v>-0.3096449505391615</v>
+        <v>-0.3068794416835114</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1579,28 +1579,28 @@
         <v>12</v>
       </c>
       <c r="B44" s="3">
-        <v>0</v>
+        <v>0.019434</v>
       </c>
       <c r="C44" s="4">
-        <v>-1</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="3">
-        <v>0.304284</v>
+        <v>0.323718</v>
       </c>
       <c r="F44" s="4">
-        <v>0.0480986497657756</v>
+        <v>0.1150385781206944</v>
       </c>
       <c r="G44" s="4">
-        <v>0.6017813714033038</v>
+        <v>0.704083888695872</v>
       </c>
       <c r="H44" s="3">
-        <v>0.304284</v>
+        <v>0.323718</v>
       </c>
       <c r="I44" s="4">
-        <v>0.6017813714033038</v>
+        <v>0.704083888695872</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1608,28 +1608,28 @@
         <v>13</v>
       </c>
       <c r="B45" s="3">
-        <v>0.058302</v>
+        <v>0.424488</v>
       </c>
       <c r="C45" s="4">
-        <v>-0.9713160605854865</v>
+        <v>-0.7911565971289494</v>
       </c>
       <c r="D45" s="4">
-        <v>-0.8887383398726737</v>
+        <v>-0.1899207645684798</v>
       </c>
       <c r="E45" s="3">
-        <v>3.657254</v>
+        <v>4.023439999999998</v>
       </c>
       <c r="F45" s="4">
-        <v>5.60613242054496</v>
+        <v>6.267577648726998</v>
       </c>
       <c r="G45" s="4">
-        <v>9.093208738560719</v>
+        <v>9.056488137491122</v>
       </c>
       <c r="H45" s="3">
-        <v>3.657254</v>
+        <v>4.023439999999998</v>
       </c>
       <c r="I45" s="4">
-        <v>9.093208738560719</v>
+        <v>9.056488137491122</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1652,13 +1652,13 @@
         <v>-0.3562506554970466</v>
       </c>
       <c r="G46" s="4">
-        <v>-0.4586365011543745</v>
+        <v>-0.4630912189735344</v>
       </c>
       <c r="H46" s="3">
         <v>2.154434</v>
       </c>
       <c r="I46" s="4">
-        <v>-0.4586365011543745</v>
+        <v>-0.4630912189735344</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1666,28 +1666,28 @@
         <v>15</v>
       </c>
       <c r="B47" s="3">
-        <v>0</v>
+        <v>0.019434</v>
       </c>
       <c r="C47" s="4">
-        <v>-1</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="D47" s="4">
-        <v>-1</v>
+        <v>0.02999788000847992</v>
       </c>
       <c r="E47" s="3">
-        <v>0.4548499999999999</v>
+        <v>0.4742839999999999</v>
       </c>
       <c r="F47" s="4">
-        <v>1.087214691495122</v>
+        <v>0.9981968014290767</v>
       </c>
       <c r="G47" s="4">
-        <v>0.9759591992771248</v>
+        <v>0.9042961535373</v>
       </c>
       <c r="H47" s="3">
-        <v>0.4548499999999999</v>
+        <v>0.4742839999999999</v>
       </c>
       <c r="I47" s="4">
-        <v>0.9759591992771248</v>
+        <v>0.9042961535373</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1724,28 +1724,28 @@
         <v>17</v>
       </c>
       <c r="B49" s="3">
-        <v>0.019434</v>
+        <v>0.357396</v>
       </c>
       <c r="C49" s="4">
-        <v>-0.852562740873365</v>
+        <v>1.711407155645921</v>
       </c>
       <c r="D49" s="4">
-        <v>-0.176001695993216</v>
+        <v>14.15352978588086</v>
       </c>
       <c r="E49" s="3">
-        <v>22.142775</v>
+        <v>22.480737</v>
       </c>
       <c r="F49" s="4">
-        <v>0.1866432547463799</v>
+        <v>0.2047548206029899</v>
       </c>
       <c r="G49" s="4">
-        <v>-0.0994947432171559</v>
+        <v>-0.0866265299316652</v>
       </c>
       <c r="H49" s="3">
-        <v>22.142775</v>
+        <v>22.480737</v>
       </c>
       <c r="I49" s="4">
-        <v>-0.0994947432171559</v>
+        <v>-0.0866265299316652</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1753,28 +1753,28 @@
         <v>18</v>
       </c>
       <c r="B50" s="3">
-        <v>6.246631000000001</v>
+        <v>9.766876000000007</v>
       </c>
       <c r="C50" s="4">
-        <v>-0.7035719905630955</v>
+        <v>-0.5365220690805852</v>
       </c>
       <c r="D50" s="4">
-        <v>-0.5883765348244994</v>
+        <v>-0.3564090238306961</v>
       </c>
       <c r="E50" s="3">
-        <v>54.71851800000003</v>
+        <v>58.23876300000005</v>
       </c>
       <c r="F50" s="4">
-        <v>4.947730295734773</v>
+        <v>4.735960092470689</v>
       </c>
       <c r="G50" s="4">
-        <v>0.1266022011216053</v>
+        <v>0.1280333415309896</v>
       </c>
       <c r="H50" s="3">
-        <v>54.71851800000003</v>
+        <v>58.23876300000005</v>
       </c>
       <c r="I50" s="4">
-        <v>0.1266022011216053</v>
+        <v>0.1280333415309896</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1782,28 +1782,28 @@
         <v>19</v>
       </c>
       <c r="B51" s="3">
-        <v>8.223449999999998</v>
+        <v>12.506145</v>
       </c>
       <c r="C51" s="4">
-        <v>-0.6738659828710285</v>
+        <v>-0.50401847063612</v>
       </c>
       <c r="D51" s="4">
-        <v>-0.4818357875422448</v>
+        <v>-0.2119807653956067</v>
       </c>
       <c r="E51" s="3">
-        <v>86.75535700000002</v>
+        <v>91.03805200000004</v>
       </c>
       <c r="F51" s="4">
-        <v>0.7364622404031642</v>
+        <v>0.7873803534895136</v>
       </c>
       <c r="G51" s="4">
-        <v>0.08108761789358065</v>
+        <v>0.09106833119829005</v>
       </c>
       <c r="H51" s="3">
-        <v>86.75535700000002</v>
+        <v>91.03805200000004</v>
       </c>
       <c r="I51" s="4">
-        <v>0.08108761789358065</v>
+        <v>0.09106833119829005</v>
       </c>
     </row>
   </sheetData>

--- a/Report/昆明机构周报.xlsx
+++ b/Report/昆明机构周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="24">
   <si>
     <t>昆明地区机构整体保费汇总表</t>
   </si>
@@ -55,6 +55,9 @@
     <t>香榭丽园</t>
   </si>
   <si>
+    <t>——</t>
+  </si>
+  <si>
     <t>宜良</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
   </si>
   <si>
     <t>昆明地区机构车险保费汇总表</t>
-  </si>
-  <si>
-    <t>——</t>
   </si>
   <si>
     <t>昆明地区机构财产险保费汇总表</t>
@@ -93,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="3">
@@ -525,28 +525,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>12.443974</v>
+        <v>1.213951</v>
       </c>
       <c r="C3" s="4">
-        <v>-0.6829124193302946</v>
+        <v>-0.910573082457377</v>
       </c>
       <c r="D3" s="4">
-        <v>-0.1456838027997381</v>
+        <v>-0.882306227900018</v>
       </c>
       <c r="E3" s="3">
-        <v>134.462281</v>
+        <v>136.8966640000001</v>
       </c>
       <c r="F3" s="4">
-        <v>0.359226488911782</v>
+        <v>0.0342944119390558</v>
       </c>
       <c r="G3" s="4">
-        <v>1.11613887974742</v>
+        <v>0.7309484690784895</v>
       </c>
       <c r="H3" s="3">
-        <v>134.462281</v>
+        <v>136.8966640000001</v>
       </c>
       <c r="I3" s="4">
-        <v>1.11613887974742</v>
+        <v>0.7309484690784895</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,28 +554,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>5.12175</v>
+        <v>0.072642</v>
       </c>
       <c r="C4" s="4">
-        <v>-0.8244737304850721</v>
+        <v>-0.986541160515031</v>
       </c>
       <c r="D4" s="4">
-        <v>-0.3902468061397356</v>
+        <v>-0.9926933740765757</v>
       </c>
       <c r="E4" s="3">
-        <v>93.34625600000001</v>
+        <v>93.69449300000001</v>
       </c>
       <c r="F4" s="4">
-        <v>0.6267176479106822</v>
+        <v>-0.05561906171095832</v>
       </c>
       <c r="G4" s="4">
-        <v>0.8187797289132102</v>
+        <v>0.5080250883811794</v>
       </c>
       <c r="H4" s="3">
-        <v>93.34625600000001</v>
+        <v>93.69449300000001</v>
       </c>
       <c r="I4" s="4">
-        <v>0.8187797289132102</v>
+        <v>0.5080250883811794</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -583,236 +583,236 @@
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <v>2.352003</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-0.8720906088957823</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-0.6183948070608554</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="3">
         <v>52.93008000000003</v>
       </c>
       <c r="F5" s="4">
-        <v>0.283714865846785</v>
+        <v>-0.02940000342175841</v>
       </c>
       <c r="G5" s="4">
-        <v>0.4539815933295728</v>
+        <v>0.2712949081005049</v>
       </c>
       <c r="H5" s="3">
         <v>52.93008000000003</v>
       </c>
       <c r="I5" s="4">
-        <v>0.4539815933295728</v>
+        <v>0.2712949081005049</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>6.878212999999999</v>
+        <v>1.438369</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.859894734869487</v>
+        <v>-0.8065151092034826</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3522076058530441</v>
+        <v>-0.7665524289685075</v>
       </c>
       <c r="E6" s="3">
-        <v>119.6282830000001</v>
+        <v>121.6851870000001</v>
       </c>
       <c r="F6" s="4">
-        <v>0.842643375246179</v>
+        <v>0.4650954091877517</v>
       </c>
       <c r="G6" s="4">
-        <v>0.7614086046759447</v>
+        <v>0.5292054864468267</v>
       </c>
       <c r="H6" s="3">
-        <v>119.6282830000001</v>
+        <v>121.6851870000001</v>
       </c>
       <c r="I6" s="4">
-        <v>0.7614086046759447</v>
+        <v>0.5292054864468267</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>7.534509</v>
+        <v>1.590174</v>
       </c>
       <c r="C7" s="4">
-        <v>-0.6345664290700567</v>
+        <v>-0.8107707949660543</v>
       </c>
       <c r="D7" s="4">
-        <v>0.4353430588687124</v>
+        <v>-0.8246795901523489</v>
       </c>
       <c r="E7" s="3">
-        <v>67.94082799999998</v>
+        <v>70.39992099999998</v>
       </c>
       <c r="F7" s="4">
-        <v>0.1256340954753057</v>
+        <v>-0.3156290484803776</v>
       </c>
       <c r="G7" s="4">
-        <v>1.146624346391816</v>
+        <v>0.6389720662972391</v>
       </c>
       <c r="H7" s="3">
-        <v>67.94082799999998</v>
+        <v>70.39992099999998</v>
       </c>
       <c r="I7" s="4">
-        <v>1.146624346391816</v>
+        <v>0.6389720662972391</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>2.829816</v>
+        <v>0.6293040000000001</v>
       </c>
       <c r="C8" s="4">
-        <v>-0.5913037651025246</v>
+        <v>-0.8616247347347853</v>
       </c>
       <c r="D8" s="4">
-        <v>-0.5592923488021395</v>
+        <v>-0.8858456177457873</v>
       </c>
       <c r="E8" s="3">
-        <v>29.712222</v>
+        <v>32.05951699999999</v>
       </c>
       <c r="F8" s="4">
-        <v>0.1662829460105939</v>
+        <v>-0.3069159930182086</v>
       </c>
       <c r="G8" s="4">
-        <v>0.4733708506525764</v>
+        <v>0.141068721276205</v>
       </c>
       <c r="H8" s="3">
-        <v>29.712222</v>
+        <v>32.05951699999999</v>
       </c>
       <c r="I8" s="4">
-        <v>0.4733708506525764</v>
+        <v>0.141068721276205</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>0.179622</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-0.9974194075972875</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-0.9870299669990636</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="3">
         <v>73.76655699999999</v>
       </c>
       <c r="F9" s="4">
-        <v>7.665268670519879</v>
+        <v>1.457906576864645</v>
       </c>
       <c r="G9" s="4">
-        <v>0.2942362462821428</v>
+        <v>0.2744493714012444</v>
       </c>
       <c r="H9" s="3">
         <v>73.76655699999999</v>
       </c>
       <c r="I9" s="4">
-        <v>0.2942362462821428</v>
+        <v>0.2744493714012444</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
-        <v>8.791193</v>
+        <v>1.548668</v>
       </c>
       <c r="C10" s="4">
-        <v>-0.6257264721290272</v>
+        <v>-0.8478729324235186</v>
       </c>
       <c r="D10" s="4">
-        <v>0.5924135684931111</v>
+        <v>-0.4159139304784799</v>
       </c>
       <c r="E10" s="3">
-        <v>93.14533199999995</v>
+        <v>96.08290199999996</v>
       </c>
       <c r="F10" s="4">
-        <v>3.284910649730352</v>
+        <v>2.556823612567882</v>
       </c>
       <c r="G10" s="4">
-        <v>1.503014839658211</v>
+        <v>1.308012334617763</v>
       </c>
       <c r="H10" s="3">
-        <v>93.14533199999995</v>
+        <v>96.08290199999996</v>
       </c>
       <c r="I10" s="4">
-        <v>1.503014839658211</v>
+        <v>1.308012334617763</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>9.775366000000007</v>
+        <v>0.6614439999999948</v>
       </c>
       <c r="C11" s="4">
-        <v>-0.5366170901069438</v>
+        <v>-0.933968942310524</v>
       </c>
       <c r="D11" s="4">
-        <v>-0.3558495729491985</v>
+        <v>-0.9193019878890278</v>
       </c>
       <c r="E11" s="3">
-        <v>58.30291000000005</v>
+        <v>55.34278099999997</v>
       </c>
       <c r="F11" s="4">
-        <v>4.742277957292985</v>
+        <v>2.473487276277612</v>
       </c>
       <c r="G11" s="4">
-        <v>0.1292758121988367</v>
+        <v>-0.1938153125731548</v>
       </c>
       <c r="H11" s="3">
-        <v>58.30291000000005</v>
+        <v>55.34278099999997</v>
       </c>
       <c r="I11" s="4">
-        <v>0.1292758121988367</v>
+        <v>-0.1938153125731548</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>55.906446</v>
+        <v>7.154551999999996</v>
       </c>
       <c r="C12" s="4">
-        <v>-0.7986343827467299</v>
+        <v>-0.8847643262776659</v>
       </c>
       <c r="D12" s="4">
-        <v>-0.3496430033192068</v>
+        <v>-0.8664994100882348</v>
       </c>
       <c r="E12" s="3">
-        <v>723.2347490000004</v>
+        <v>732.8581020000011</v>
       </c>
       <c r="F12" s="4">
-        <v>0.860646268751216</v>
+        <v>0.2395218256568254</v>
       </c>
       <c r="G12" s="4">
-        <v>0.7350458992111726</v>
+        <v>0.4609361873417444</v>
       </c>
       <c r="H12" s="3">
-        <v>723.2347490000004</v>
+        <v>732.8581020000011</v>
       </c>
       <c r="I12" s="4">
-        <v>0.7350458992111726</v>
+        <v>0.4609361873417444</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -857,28 +857,28 @@
         <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>12.438316</v>
+        <v>1.213951</v>
       </c>
       <c r="C16" s="4">
-        <v>-0.6737224642776753</v>
+        <v>-0.9105357935754884</v>
       </c>
       <c r="D16" s="4">
-        <v>-0.1460722414965533</v>
+        <v>-0.882306227900018</v>
       </c>
       <c r="E16" s="3">
-        <v>133.136119</v>
+        <v>135.5705020000001</v>
       </c>
       <c r="F16" s="4">
-        <v>0.6096942618590673</v>
+        <v>0.1684218483510236</v>
       </c>
       <c r="G16" s="4">
-        <v>1.095268023265046</v>
+        <v>0.7141802147136493</v>
       </c>
       <c r="H16" s="3">
-        <v>133.136119</v>
+        <v>135.5705020000001</v>
       </c>
       <c r="I16" s="4">
-        <v>1.095268023265046</v>
+        <v>0.7141802147136493</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -886,28 +886,28 @@
         <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>4.620363</v>
+        <v>0.072642</v>
       </c>
       <c r="C17" s="4">
-        <v>-0.8160037481313104</v>
+        <v>-0.9851628629167162</v>
       </c>
       <c r="D17" s="4">
-        <v>-0.4452023681513541</v>
+        <v>-0.9922044130349701</v>
       </c>
       <c r="E17" s="3">
-        <v>84.172736</v>
+        <v>84.52097299999998</v>
       </c>
       <c r="F17" s="4">
-        <v>0.7019565191237427</v>
+        <v>0.2601768395999429</v>
       </c>
       <c r="G17" s="4">
-        <v>0.8938644633363753</v>
+        <v>0.5486958269614368</v>
       </c>
       <c r="H17" s="3">
-        <v>84.172736</v>
+        <v>84.52097299999998</v>
       </c>
       <c r="I17" s="4">
-        <v>0.8938644633363753</v>
+        <v>0.5486958269614368</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -915,231 +915,231 @@
         <v>12</v>
       </c>
       <c r="B18" s="3">
-        <v>2.332569</v>
-      </c>
-      <c r="C18" s="4">
-        <v>-0.8569967182867186</v>
-      </c>
-      <c r="D18" s="4">
-        <v>-0.6215479132939592</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="3">
         <v>50.49735700000002</v>
       </c>
       <c r="F18" s="4">
-        <v>0.2347641567496059</v>
+        <v>-0.05200398261768646</v>
       </c>
       <c r="G18" s="4">
-        <v>0.542977754596252</v>
+        <v>0.3436906973978695</v>
       </c>
       <c r="H18" s="3">
         <v>50.49735700000002</v>
       </c>
       <c r="I18" s="4">
-        <v>0.542977754596252</v>
+        <v>0.3436906973978695</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
-        <v>6.453725</v>
+        <v>1.411161</v>
       </c>
       <c r="C19" s="4">
-        <v>-0.8041941970262282</v>
+        <v>-0.7986794823728401</v>
       </c>
       <c r="D19" s="4">
-        <v>-0.3606324401223706</v>
+        <v>-0.7702647791130529</v>
       </c>
       <c r="E19" s="3">
-        <v>101.504054</v>
+        <v>103.53375</v>
       </c>
       <c r="F19" s="4">
-        <v>0.6648892810835942</v>
+        <v>0.3127705351470635</v>
       </c>
       <c r="G19" s="4">
-        <v>0.8856245171182782</v>
+        <v>0.5932388365945986</v>
       </c>
       <c r="H19" s="3">
-        <v>101.504054</v>
+        <v>103.53375</v>
       </c>
       <c r="I19" s="4">
-        <v>0.8856245171182782</v>
+        <v>0.5932388365945986</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
-        <v>5.670207</v>
+        <v>1.590174</v>
       </c>
       <c r="C20" s="4">
-        <v>-0.722698581280901</v>
+        <v>-0.7439078478341323</v>
       </c>
       <c r="D20" s="4">
-        <v>0.1775367826633041</v>
+        <v>-0.494004932752977</v>
       </c>
       <c r="E20" s="3">
-        <v>65.81186099999999</v>
+        <v>67.94120999999998</v>
       </c>
       <c r="F20" s="4">
-        <v>0.1543686469641978</v>
+        <v>-0.1678389366616312</v>
       </c>
       <c r="G20" s="4">
-        <v>1.511572081740524</v>
+        <v>1.15303216412417</v>
       </c>
       <c r="H20" s="3">
-        <v>65.81186099999999</v>
+        <v>67.94120999999998</v>
       </c>
       <c r="I20" s="4">
-        <v>1.511572081740524</v>
+        <v>1.15303216412417</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
-        <v>2.810382</v>
+        <v>0.6196440000000001</v>
       </c>
       <c r="C21" s="4">
-        <v>-0.5906638006346324</v>
+        <v>-0.8630179927547942</v>
       </c>
       <c r="D21" s="4">
-        <v>-0.5577708069271059</v>
+        <v>-0.874544634015629</v>
       </c>
       <c r="E21" s="3">
-        <v>29.237938</v>
+        <v>31.57074299999999</v>
       </c>
       <c r="F21" s="4">
-        <v>0.325702209236316</v>
+        <v>-0.2613264626690387</v>
       </c>
       <c r="G21" s="4">
-        <v>0.4714671013068343</v>
+        <v>0.158767911847328</v>
       </c>
       <c r="H21" s="3">
-        <v>29.237938</v>
+        <v>31.57074299999999</v>
       </c>
       <c r="I21" s="4">
-        <v>0.4714671013068343</v>
+        <v>0.158767911847328</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
-        <v>0.179622</v>
-      </c>
-      <c r="C22" s="4">
-        <v>-0.996779932184284</v>
-      </c>
-      <c r="D22" s="4">
-        <v>-0.7426806923849404</v>
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E22" s="3">
         <v>57.884472</v>
       </c>
       <c r="F22" s="4">
-        <v>11.27660698083699</v>
+        <v>8.871203704382676</v>
       </c>
       <c r="G22" s="4">
-        <v>19.93425531453205</v>
+        <v>15.71458754859431</v>
       </c>
       <c r="H22" s="3">
         <v>57.884472</v>
       </c>
       <c r="I22" s="4">
-        <v>19.93425531453205</v>
+        <v>15.71458754859431</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
-        <v>8.433797</v>
+        <v>1.547642</v>
       </c>
       <c r="C23" s="4">
-        <v>-0.5990406124015245</v>
+        <v>-0.8419108855538807</v>
       </c>
       <c r="D23" s="4">
-        <v>0.534230220478592</v>
+        <v>-0.416300890309334</v>
       </c>
       <c r="E23" s="3">
-        <v>68.34176500000001</v>
+        <v>71.24529100000001</v>
       </c>
       <c r="F23" s="4">
-        <v>26.19606968444779</v>
+        <v>17.13003517077586</v>
       </c>
       <c r="G23" s="4">
-        <v>4.423780863325522</v>
+        <v>3.186642148069782</v>
       </c>
       <c r="H23" s="3">
-        <v>68.34176500000001</v>
+        <v>71.24529100000001</v>
       </c>
       <c r="I23" s="4">
-        <v>4.423780863325522</v>
+        <v>3.186642148069782</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
-        <v>42.93898099999996</v>
+        <v>6.455214000000001</v>
       </c>
       <c r="C25" s="4">
-        <v>-0.8017900262528741</v>
+        <v>-0.8669286062553972</v>
       </c>
       <c r="D25" s="4">
-        <v>-0.2402448996159043</v>
+        <v>-0.8287182093757737</v>
       </c>
       <c r="E25" s="3">
-        <v>590.5863020000007</v>
+        <v>602.7642980000011</v>
       </c>
       <c r="F25" s="4">
-        <v>0.8437213545949565</v>
+        <v>0.3412309382922945</v>
       </c>
       <c r="G25" s="4">
-        <v>1.307132734643642</v>
+        <v>0.9104499545694602</v>
       </c>
       <c r="H25" s="3">
-        <v>590.5863020000007</v>
+        <v>602.7642980000011</v>
       </c>
       <c r="I25" s="4">
-        <v>1.307132734643642</v>
+        <v>0.9104499545694602</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1191,11 +1191,11 @@
       <c r="B29" s="3">
         <v>0</v>
       </c>
-      <c r="C29" s="4">
-        <v>-1</v>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E29" s="3">
         <v>0.566038</v>
@@ -1204,13 +1204,13 @@
         <v>-0.9113867851186132</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H29" s="3">
         <v>0.566038</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>11</v>
       </c>
       <c r="B30" s="3">
-        <v>0.45283</v>
-      </c>
-      <c r="C30" s="4">
-        <v>-0.861369037013362</v>
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E30" s="3">
         <v>7.567385000000001</v>
       </c>
       <c r="F30" s="4">
-        <v>7.96288887151754</v>
+        <v>-0.6865941818157421</v>
       </c>
       <c r="G30" s="4">
-        <v>0.6590238236591464</v>
+        <v>0.4745196022994087</v>
       </c>
       <c r="H30" s="3">
         <v>7.567385000000001</v>
       </c>
       <c r="I30" s="4">
-        <v>0.6590238236591464</v>
+        <v>0.4745196022994087</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,40 +1249,40 @@
       <c r="B31" s="3">
         <v>0</v>
       </c>
-      <c r="C31" s="4">
-        <v>-1</v>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E31" s="3">
         <v>2.109005</v>
       </c>
       <c r="F31" s="4">
-        <v>45.5749083521046</v>
+        <v>17.62996334084184</v>
       </c>
       <c r="G31" s="4">
-        <v>-0.3950706839155728</v>
+        <v>-0.4541522634639534</v>
       </c>
       <c r="H31" s="3">
         <v>2.109005</v>
       </c>
       <c r="I31" s="4">
-        <v>-0.3950706839155728</v>
+        <v>-0.4541522634639534</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
       </c>
-      <c r="C32" s="4">
-        <v>-1</v>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3">
         <v>14.100789</v>
@@ -1302,80 +1302,80 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="4">
-        <v>-1</v>
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E33" s="3">
-        <v>-0.025467</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>21</v>
+        <v>0.238683</v>
+      </c>
+      <c r="F33" s="4">
+        <v>-0.6914570032097479</v>
       </c>
       <c r="G33" s="4">
-        <v>-1.017759884850505</v>
+        <v>-0.8783634617971894</v>
       </c>
       <c r="H33" s="3">
-        <v>-0.025467</v>
+        <v>0.238683</v>
       </c>
       <c r="I33" s="4">
-        <v>-1.017759884850505</v>
+        <v>-0.8783634617971894</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="4">
-        <v>-1</v>
+        <v>13</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="4">
-        <v>-1</v>
+      <c r="F34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
-      <c r="I34" s="4">
-        <v>-1</v>
+      <c r="I34" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
       </c>
-      <c r="C35" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D35" s="4">
-        <v>-1</v>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E35" s="3">
         <v>14.905668</v>
       </c>
       <c r="F35" s="4">
-        <v>3.941050817118042</v>
+        <v>-0.3429312645213728</v>
       </c>
       <c r="G35" s="4">
         <v>-0.7249990964397401</v>
@@ -1389,89 +1389,89 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
       </c>
-      <c r="C36" s="4">
-        <v>-1</v>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E36" s="3">
         <v>2.32283</v>
       </c>
       <c r="F36" s="4">
-        <v>3.110847023886423</v>
+        <v>2.763667178679525</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H36" s="3">
         <v>2.32283</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" s="3">
-        <v>0.008490000000000001</v>
+        <v>0.014149</v>
       </c>
       <c r="C37" s="4">
-        <v>-0.6250496842291215</v>
+        <v>0.8747846826553598</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E37" s="3">
-        <v>0.06414700000000001</v>
+        <v>0.09244700000000004</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H37" s="3">
-        <v>0.06414700000000001</v>
+        <v>0.09244700000000004</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" s="3">
-        <v>0.46132</v>
+        <v>0.014149</v>
       </c>
       <c r="C38" s="4">
-        <v>-0.9871095581653804</v>
+        <v>-0.9804713972012085</v>
       </c>
       <c r="D38" s="4">
-        <v>-0.9660181394717741</v>
+        <v>-0.9904166446538708</v>
       </c>
       <c r="E38" s="3">
-        <v>41.610395</v>
+        <v>41.90284499999999</v>
       </c>
       <c r="F38" s="4">
-        <v>1.385360332459092</v>
+        <v>-0.3165128451954834</v>
       </c>
       <c r="G38" s="4">
-        <v>-0.4625146747859721</v>
+        <v>-0.4688663091133212</v>
       </c>
       <c r="H38" s="3">
-        <v>41.610395</v>
+        <v>41.90284499999999</v>
       </c>
       <c r="I38" s="4">
-        <v>-0.4625146747859721</v>
+        <v>-0.4688663091133212</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1521,28 +1521,28 @@
         <v>10</v>
       </c>
       <c r="B42" s="3">
-        <v>0.005658</v>
-      </c>
-      <c r="C42" s="4">
-        <v>-0.989835970747428</v>
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E42" s="3">
         <v>0.760124</v>
       </c>
       <c r="F42" s="4">
-        <v>-0.922664411277637</v>
+        <v>-0.923537026636863</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H42" s="3">
         <v>0.760124</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1550,28 +1550,28 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>0.048557</v>
-      </c>
-      <c r="C43" s="4">
-        <v>-0.9394378195270221</v>
-      </c>
-      <c r="D43" s="4">
-        <v>-0.3227282237255039</v>
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E43" s="3">
         <v>1.606135</v>
       </c>
       <c r="F43" s="4">
-        <v>-0.7732228647818731</v>
+        <v>-0.7991386699595484</v>
       </c>
       <c r="G43" s="4">
-        <v>-0.3068794416835114</v>
+        <v>-0.3371052424129489</v>
       </c>
       <c r="H43" s="3">
         <v>1.606135</v>
       </c>
       <c r="I43" s="4">
-        <v>-0.3068794416835114</v>
+        <v>-0.3371052424129489</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1579,19 +1579,19 @@
         <v>12</v>
       </c>
       <c r="B44" s="3">
-        <v>0.019434</v>
-      </c>
-      <c r="C44" s="4">
-        <v>-0.6666666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E44" s="3">
         <v>0.323718</v>
       </c>
       <c r="F44" s="4">
-        <v>0.1150385781206944</v>
+        <v>-0.7191600776626257</v>
       </c>
       <c r="G44" s="4">
         <v>0.704083888695872</v>
@@ -1605,205 +1605,205 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3">
-        <v>0.424488</v>
+        <v>0.027208</v>
       </c>
       <c r="C45" s="4">
-        <v>-0.7911565971289494</v>
+        <v>-0.9359039595936752</v>
       </c>
       <c r="D45" s="4">
-        <v>-0.1899207645684798</v>
+        <v>0.4420182319270722</v>
       </c>
       <c r="E45" s="3">
-        <v>4.023439999999998</v>
+        <v>4.050647999999998</v>
       </c>
       <c r="F45" s="4">
-        <v>6.267577648726998</v>
+        <v>4.137071931597826</v>
       </c>
       <c r="G45" s="4">
-        <v>9.056488137491122</v>
+        <v>3.474746582061455</v>
       </c>
       <c r="H45" s="3">
-        <v>4.023439999999998</v>
+        <v>4.050647999999998</v>
       </c>
       <c r="I45" s="4">
-        <v>9.056488137491122</v>
+        <v>3.474746582061455</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" s="3">
-        <v>1.864302</v>
-      </c>
-      <c r="C46" s="4">
-        <v>9.954368110560086</v>
-      </c>
-      <c r="D46" s="4">
-        <v>31.93587025651898</v>
+        <v>0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E46" s="3">
-        <v>2.154434</v>
+        <v>2.220028</v>
       </c>
       <c r="F46" s="4">
-        <v>-0.3562506554970466</v>
+        <v>-0.8914421768913725</v>
       </c>
       <c r="G46" s="4">
-        <v>-0.4630912189735344</v>
+        <v>-0.7647124159586136</v>
       </c>
       <c r="H46" s="3">
-        <v>2.154434</v>
+        <v>2.220028</v>
       </c>
       <c r="I46" s="4">
-        <v>-0.4630912189735344</v>
+        <v>-0.7647124159586136</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="3">
-        <v>0.019434</v>
+        <v>0.00966</v>
       </c>
       <c r="C47" s="4">
-        <v>-0.6666666666666667</v>
+        <v>-0.6018793273986152</v>
       </c>
       <c r="D47" s="4">
-        <v>0.02999788000847992</v>
+        <v>-0.9831585847632265</v>
       </c>
       <c r="E47" s="3">
-        <v>0.4742839999999999</v>
+        <v>0.488774</v>
       </c>
       <c r="F47" s="4">
-        <v>0.9981968014290767</v>
+        <v>0.4696345562898774</v>
       </c>
       <c r="G47" s="4">
-        <v>0.9042961535373</v>
+        <v>-0.3919042322631374</v>
       </c>
       <c r="H47" s="3">
-        <v>0.4742839999999999</v>
+        <v>0.488774</v>
       </c>
       <c r="I47" s="4">
-        <v>0.9042961535373</v>
+        <v>-0.3919042322631374</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
       </c>
-      <c r="C48" s="4">
-        <v>-1</v>
+      <c r="C48" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E48" s="3">
         <v>0.976417</v>
       </c>
       <c r="F48" s="4">
-        <v>0.24993055351092</v>
+        <v>-0.3325355891651713</v>
       </c>
       <c r="G48" s="4">
-        <v>32.79073228128461</v>
+        <v>3.52551933184401</v>
       </c>
       <c r="H48" s="3">
         <v>0.976417</v>
       </c>
       <c r="I48" s="4">
-        <v>32.79073228128461</v>
+        <v>3.52551933184401</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" s="3">
-        <v>0.357396</v>
+        <v>0.001026</v>
       </c>
       <c r="C49" s="4">
-        <v>1.711407155645921</v>
-      </c>
-      <c r="D49" s="4">
-        <v>14.15352978588086</v>
+        <v>-0.9973720204705774</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E49" s="3">
-        <v>22.480737</v>
+        <v>22.514781</v>
       </c>
       <c r="F49" s="4">
-        <v>0.2047548206029899</v>
+        <v>0.002134435806177448</v>
       </c>
       <c r="G49" s="4">
-        <v>-0.0866265299316652</v>
+        <v>-0.0852433507941216</v>
       </c>
       <c r="H49" s="3">
-        <v>22.480737</v>
+        <v>22.514781</v>
       </c>
       <c r="I49" s="4">
-        <v>-0.0866265299316652</v>
+        <v>-0.0852433507941216</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" s="3">
-        <v>9.766876000000007</v>
+        <v>0.6472949999999952</v>
       </c>
       <c r="C50" s="4">
-        <v>-0.5365220690805852</v>
+        <v>-0.9353326970120138</v>
       </c>
       <c r="D50" s="4">
-        <v>-0.3564090238306961</v>
+        <v>-0.9210282053365489</v>
       </c>
       <c r="E50" s="3">
-        <v>58.23876300000005</v>
+        <v>55.25033400000001</v>
       </c>
       <c r="F50" s="4">
-        <v>4.735960092470689</v>
+        <v>2.467685011331261</v>
       </c>
       <c r="G50" s="4">
-        <v>0.1280333415309896</v>
+        <v>-0.1951619987073143</v>
       </c>
       <c r="H50" s="3">
-        <v>58.23876300000005</v>
+        <v>55.25033400000001</v>
       </c>
       <c r="I50" s="4">
-        <v>0.1280333415309896</v>
+        <v>-0.1951619987073143</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" s="3">
-        <v>12.506145</v>
+        <v>0.6851889999999951</v>
       </c>
       <c r="C51" s="4">
-        <v>-0.50401847063612</v>
+        <v>-0.9466875614528698</v>
       </c>
       <c r="D51" s="4">
-        <v>-0.2119807653956067</v>
+        <v>-0.9525091637229895</v>
       </c>
       <c r="E51" s="3">
-        <v>91.03805200000004</v>
+        <v>88.19095899999998</v>
       </c>
       <c r="F51" s="4">
-        <v>0.7873803534895136</v>
+        <v>0.09521482264189096</v>
       </c>
       <c r="G51" s="4">
-        <v>0.09106833119829005</v>
+        <v>-0.1775813156116332</v>
       </c>
       <c r="H51" s="3">
-        <v>91.03805200000004</v>
+        <v>88.19095899999998</v>
       </c>
       <c r="I51" s="4">
-        <v>0.09106833119829005</v>
+        <v>-0.1775813156116332</v>
       </c>
     </row>
   </sheetData>
